--- a/templates/community/TRR341_Phenotyping/Study_Rooting_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Rooting_protocol_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie Jacquemin\Documents\GitHub\Swate-templates_myfork\templates\community\TRR341_Phenotyping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5494F218-E76D-4956-9B40-B01A3984AEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0AB4AF-04F2-0F47-888D-4221D4FE6C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1830" windowWidth="12015" windowHeight="11385" activeTab="1" xr2:uid="{9B6B8962-21E7-4CBC-9B89-4B418FF63589}"/>
+    <workbookView xWindow="-23920" yWindow="-20440" windowWidth="34140" windowHeight="17580" xr2:uid="{9B6B8962-21E7-4CBC-9B89-4B418FF63589}"/>
   </bookViews>
   <sheets>
     <sheet name="Rooting_protocol" sheetId="1" r:id="rId1"/>
@@ -859,39 +859,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62519AE1-A5BD-4CEF-AD76-2CEAE2AE44AA}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="49.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.28515625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="49.5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="30.5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -965,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -1051,7 +1051,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1077,7 +1077,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -1103,7 +1103,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -1129,7 +1129,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -1155,7 +1155,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>1</v>
@@ -1181,7 +1181,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>1</v>
@@ -1207,7 +1207,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -1233,7 +1233,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -1259,7 +1259,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="18" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="24:24" x14ac:dyDescent="0.2">
       <c r="X18" t="s">
         <v>0</v>
       </c>
@@ -1276,18 +1276,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF2FB87-7DAB-4221-AC1A-671AD5AB23D1}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -1335,37 +1335,37 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -1391,25 +1391,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1425,13 +1425,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -1439,25 +1439,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
@@ -1465,13 +1465,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -1479,13 +1479,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>53</v>
       </c>

--- a/templates/community/TRR341_Phenotyping/Study_Rooting_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Rooting_protocol_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0AB4AF-04F2-0F47-888D-4221D4FE6C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46304242-149F-4E54-AC60-3A80E7DA0541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23920" yWindow="-20440" windowWidth="34140" windowHeight="17580" xr2:uid="{9B6B8962-21E7-4CBC-9B89-4B418FF63589}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9B6B8962-21E7-4CBC-9B89-4B418FF63589}"/>
   </bookViews>
   <sheets>
     <sheet name="Rooting_protocol" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -226,9 +226,6 @@
     <t xml:space="preserve">phenotyping </t>
   </si>
   <si>
-    <t>plant</t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
@@ -251,6 +248,15 @@
   </si>
   <si>
     <t>Coordinator Plant Cultivation and Phenotyping Platform Project Z2</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
+  </si>
+  <si>
+    <t>NCIT</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -430,10 +436,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -543,9 +552,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -583,7 +592,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -689,7 +698,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -831,7 +840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -859,39 +868,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62519AE1-A5BD-4CEF-AD76-2CEAE2AE44AA}">
   <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="49.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="49.44140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.33203125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="29.33203125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="30.5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="30.44140625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="37.33203125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="41.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.6640625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="16.33203125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="14.83203125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.77734375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.77734375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -965,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1025,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -1051,7 +1060,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1077,7 +1086,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -1103,7 +1112,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -1129,7 +1138,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -1155,7 +1164,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>1</v>
@@ -1181,7 +1190,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>1</v>
@@ -1207,7 +1216,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -1233,7 +1242,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>1</v>
@@ -1259,7 +1268,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="18" spans="24:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="24:24" x14ac:dyDescent="0.3">
       <c r="X18" t="s">
         <v>0</v>
       </c>
@@ -1276,18 +1285,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF2FB87-7DAB-4221-AC1A-671AD5AB23D1}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1295,7 +1304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1303,7 +1312,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1311,7 +1320,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -1335,37 +1344,37 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -1379,113 +1388,119 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
         <v>63</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>65</v>
       </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>53</v>
       </c>

--- a/templates/community/TRR341_Phenotyping/Study_Rooting_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Rooting_protocol_TRR341_MIAPPE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46304242-149F-4E54-AC60-3A80E7DA0541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAF43B9-7CC9-4C50-8D4F-14A6B22FA516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9B6B8962-21E7-4CBC-9B89-4B418FF63589}"/>
   </bookViews>
@@ -220,18 +220,9 @@
     <t>watering</t>
   </si>
   <si>
-    <t xml:space="preserve"> protocol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">phenotyping </t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
-    <t xml:space="preserve">study </t>
-  </si>
-  <si>
     <t>MIAPPE</t>
   </si>
   <si>
@@ -253,10 +244,19 @@
     <t>Plant</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
-  </si>
-  <si>
-    <t>NCIT</t>
+    <t>NCIT:C14258</t>
+  </si>
+  <si>
+    <t>phenotyping</t>
+  </si>
+  <si>
+    <t>DPBO:1000224</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>NCIT:C63536</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -398,12 +398,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,9 +456,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1283,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF2FB87-7DAB-4221-AC1A-671AD5AB23D1}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,7 +1324,7 @@
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1304,7 +1332,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1312,7 +1340,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1320,7 +1348,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1328,7 +1356,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1336,7 +1364,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -1344,92 +1372,96 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="E13" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="E14" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1437,7 +1469,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1451,7 +1483,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1477,7 +1509,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1491,7 +1523,7 @@
         <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">

--- a/templates/community/TRR341_Phenotyping/Study_Rooting_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Rooting_protocol_TRR341_MIAPPE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAF43B9-7CC9-4C50-8D4F-14A6B22FA516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B31AB6A-3EF2-4A8E-88E3-095955F32E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9B6B8962-21E7-4CBC-9B89-4B418FF63589}"/>
   </bookViews>
   <sheets>
     <sheet name="Rooting_protocol" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -423,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -462,11 +462,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1409,13 +1407,13 @@
       <c r="B12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" t="s">
         <v>61</v>
       </c>
       <c r="F12" t="s">
@@ -1430,13 +1428,12 @@
         <v>39</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="16"/>
       <c r="F13" t="s">
         <v>73</v>
       </c>
@@ -1446,9 +1443,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">

--- a/templates/community/TRR341_Phenotyping/Study_Rooting_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Rooting_protocol_TRR341_MIAPPE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B31AB6A-3EF2-4A8E-88E3-095955F32E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C056D-D684-44FD-834C-CF2E60683BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9B6B8962-21E7-4CBC-9B89-4B418FF63589}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>NCIT:C63536</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C52095</t>
+  </si>
+  <si>
+    <t>NCIT</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1318,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,6 +1440,9 @@
       <c r="D13" s="14" t="s">
         <v>69</v>
       </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
       <c r="F13" t="s">
         <v>73</v>
       </c>
@@ -1443,7 +1452,9 @@
         <v>40</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="E14" s="14"/>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">

--- a/templates/community/TRR341_Phenotyping/Study_Rooting_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Rooting_protocol_TRR341_MIAPPE.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8C056D-D684-44FD-834C-CF2E60683BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B240AAC7-8605-4983-9D4B-A3635E5F38E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9B6B8962-21E7-4CBC-9B89-4B418FF63589}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9B6B8962-21E7-4CBC-9B89-4B418FF63589}"/>
   </bookViews>
   <sheets>
     <sheet name="Rooting_protocol" sheetId="1" r:id="rId1"/>
     <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -220,9 +220,6 @@
     <t>watering</t>
   </si>
   <si>
-    <t xml:space="preserve"> metadata </t>
-  </si>
-  <si>
     <t>MIAPPE</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>NCIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metadata </t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1318,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1414,19 +1414,19 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
         <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1435,16 +1435,16 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B14" s="13"/>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1467,7 +1467,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1475,7 +1475,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1489,7 +1489,7 @@
         <v>45</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1515,7 +1515,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1529,7 +1529,7 @@
         <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
